--- a/Project0/DataSpreadsheet/RoSADatasheet.xlsx
+++ b/Project0/DataSpreadsheet/RoSADatasheet.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>Eggs</t>
   </si>
@@ -208,6 +208,21 @@
   </si>
   <si>
     <t>aurelianderu@EBI.com</t>
+  </si>
+  <si>
+    <t>Imara Gimura</t>
+  </si>
+  <si>
+    <t>imarasnakeeyes@EBI.com</t>
+  </si>
+  <si>
+    <t>Zelda BOTW (5% Discount)</t>
+  </si>
+  <si>
+    <t>Vincent Pryor</t>
+  </si>
+  <si>
+    <t>DrPryor@EBI.com</t>
   </si>
 </sst>
 </file>
@@ -716,7 +731,7 @@
         <v>39.99</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -742,7 +757,7 @@
         <v>899.99</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -873,7 +888,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
@@ -960,6 +975,22 @@
         <v>45</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
@@ -973,7 +1004,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -1057,6 +1088,34 @@
         <v>33.25</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>189.95249999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>4499.95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Project0/DataSpreadsheet/RoSADatasheet.xlsx
+++ b/Project0/DataSpreadsheet/RoSADatasheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Vendors" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Eggs</t>
   </si>
@@ -54,15 +54,6 @@
     <t>Vendor</t>
   </si>
   <si>
-    <t>Dark Side of the Moon Vinyl</t>
-  </si>
-  <si>
-    <t>Samsung S9000</t>
-  </si>
-  <si>
-    <t>Oculus Quest 2</t>
-  </si>
-  <si>
     <t>Column1</t>
   </si>
   <si>
@@ -78,8 +69,113 @@
     <t>ClientEmail</t>
   </si>
   <si>
+    <t>Soda City</t>
+  </si>
+  <si>
+    <t>Surge</t>
+  </si>
+  <si>
+    <t>Mountain Dew</t>
+  </si>
+  <si>
+    <t>Pepsi</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>Washing Machine</t>
+  </si>
+  <si>
+    <t>Basket</t>
+  </si>
+  <si>
+    <t>Niles Valentine</t>
+  </si>
+  <si>
+    <t>nilesvalentine@email.com</t>
+  </si>
+  <si>
+    <t>Mohit Damle</t>
+  </si>
+  <si>
+    <t>mohitdamle@email.com</t>
+  </si>
+  <si>
+    <t>Marrielle Nolasco</t>
+  </si>
+  <si>
+    <t>marriellenolasco@email.com</t>
+  </si>
+  <si>
+    <t>Kicks</t>
+  </si>
+  <si>
+    <t>Damle Movies</t>
+  </si>
+  <si>
+    <t>Tech Devs</t>
+  </si>
+  <si>
+    <t>Valentine Groceries</t>
+  </si>
+  <si>
+    <t>Fruit Loops</t>
+  </si>
+  <si>
+    <t>Jasmine Pryor</t>
+  </si>
+  <si>
+    <t>jasminepryor@email.com</t>
+  </si>
+  <si>
+    <t>Elliot Min</t>
+  </si>
+  <si>
+    <t>elliotmin@email.com</t>
+  </si>
+  <si>
+    <t>Zumaridi Nderu</t>
+  </si>
+  <si>
+    <t>zumethesilentsage@EBI.com</t>
+  </si>
+  <si>
+    <t>Aurelia Nderu</t>
+  </si>
+  <si>
+    <t>aurelianderu@EBI.com</t>
+  </si>
+  <si>
+    <t>Imara Gimura</t>
+  </si>
+  <si>
+    <t>imarasnakeeyes@EBI.com</t>
+  </si>
+  <si>
+    <t>Vincent Pryor</t>
+  </si>
+  <si>
+    <t>DrPryor@EBI.com</t>
+  </si>
+  <si>
+    <t>Coming to America</t>
+  </si>
+  <si>
+    <t>drpryor@EBI.com</t>
+  </si>
+  <si>
+    <t>New Super Mario Bros. Switch (5% Discount</t>
+  </si>
+  <si>
+    <t>Turkey Bacon (2% Discount)</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Tile Mate </t>
+      <t xml:space="preserve">Beats Headphones </t>
     </r>
     <r>
       <rPr>
@@ -93,136 +189,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Zelda BOTW </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(5% Discount)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sliced Bacon </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(2% Discount)</t>
-    </r>
-  </si>
-  <si>
-    <t>Soda City</t>
-  </si>
-  <si>
-    <t>Surge</t>
-  </si>
-  <si>
-    <t>Mountain Dew</t>
-  </si>
-  <si>
-    <t>Pepsi</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Bicycle</t>
-  </si>
-  <si>
-    <t>Washing Machine</t>
-  </si>
-  <si>
-    <t>Basket</t>
-  </si>
-  <si>
-    <t>Niles Valentine</t>
-  </si>
-  <si>
-    <t>nilesvalentine@email.com</t>
-  </si>
-  <si>
-    <t>Mohit Damle</t>
-  </si>
-  <si>
-    <t>mohitdamle@email.com</t>
-  </si>
-  <si>
-    <t>Marrielle Nolasco</t>
-  </si>
-  <si>
-    <t>marriellenolasco@email.com</t>
-  </si>
-  <si>
-    <t>Kicks</t>
-  </si>
-  <si>
-    <t>Damle Movies</t>
-  </si>
-  <si>
-    <t>Tech Devs</t>
-  </si>
-  <si>
-    <t>Valentine Groceries</t>
-  </si>
-  <si>
-    <t>Fruit Loops</t>
-  </si>
-  <si>
-    <t>Jasmine Pryor</t>
-  </si>
-  <si>
-    <t>jasminepryor@email.com</t>
-  </si>
-  <si>
-    <t>Sliced Bacon (2% Discount)</t>
-  </si>
-  <si>
-    <t>Elliot Min</t>
-  </si>
-  <si>
-    <t>elliotmin@email.com</t>
-  </si>
-  <si>
-    <t>Zumaridi Nderu</t>
-  </si>
-  <si>
-    <t>zumethesilentsage@EBI.com</t>
-  </si>
-  <si>
-    <t>Tile Mate (10% Discount)</t>
-  </si>
-  <si>
-    <t>Aurelia Nderu</t>
-  </si>
-  <si>
-    <t>aurelianderu@EBI.com</t>
-  </si>
-  <si>
-    <t>Imara Gimura</t>
-  </si>
-  <si>
-    <t>imarasnakeeyes@EBI.com</t>
-  </si>
-  <si>
-    <t>Zelda BOTW (5% Discount)</t>
-  </si>
-  <si>
-    <t>Vincent Pryor</t>
-  </si>
-  <si>
-    <t>DrPryor@EBI.com</t>
+    <t>Apple Iphone 11</t>
+  </si>
+  <si>
+    <t>VR Goggles</t>
   </si>
 </sst>
 </file>
@@ -306,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -320,6 +290,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -627,7 +598,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -637,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C3" sqref="B1:C3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,7 +637,7 @@
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -683,13 +654,13 @@
     <row r="3" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>5.83</v>
       </c>
       <c r="D3">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="2"/>
@@ -697,7 +668,7 @@
     <row r="4" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>2.5</v>
@@ -710,10 +681,10 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -722,10 +693,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>39.99</v>
@@ -737,7 +708,7 @@
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>24.99</v>
@@ -748,25 +719,25 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>899.99</v>
+        <v>47</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1100.99</v>
       </c>
       <c r="D8">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1">
-        <v>24.99</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>90</v>
@@ -777,7 +748,7 @@
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1">
         <v>300</v>
@@ -810,10 +781,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>5.99</v>
@@ -824,7 +795,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>5.99</v>
@@ -835,7 +806,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>7.99</v>
@@ -846,10 +817,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>99.99</v>
@@ -860,7 +831,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C20">
         <v>149.99</v>
@@ -871,7 +842,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C21">
         <v>3.99</v>
@@ -888,7 +859,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
@@ -905,90 +876,98 @@
         <v>4</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1004,10 +983,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,97 +1002,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>57.134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>224.91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>33.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>189.95249999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>4499.95</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
